--- a/charts_xlsx/awchart.xlsx
+++ b/charts_xlsx/awchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="450">
   <si>
     <t>Sign Degree: [Planet]</t>
   </si>
@@ -97,9 +97,39 @@
     <t>Pluto Aspect Score</t>
   </si>
   <si>
+    <t>Personal total</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
     <t>Stitches</t>
   </si>
   <si>
+    <t>Rounds:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>SUN CONJ</t>
   </si>
   <si>
@@ -505,9 +535,6 @@
     <t xml:space="preserve">1: [Asc Trine_b; Saturn Semisextile] 2: [Moon Semisextile_b; Mars Trine_b; Pluto Trine] </t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>4 Aries</t>
   </si>
   <si>
@@ -583,7 +610,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>2 Aries</t>
+    <t>2 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">32: [Moon Conj; Mercury Semisextile_b; Mars Square_b] 35: [Saturn Sextile] </t>
@@ -592,7 +619,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>6 Aries</t>
+    <t>6 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">36: [Sun Semisextile_b] </t>
@@ -601,7 +628,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>10 Aries</t>
+    <t>10 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">42: [Venus Semisextile; Neptune Trine] 43: [Asc Sextile_b; Uranus Trine] </t>
@@ -610,7 +637,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>14 Aries</t>
+    <t>14 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">44: [Moon Semisextile; Pluto Opposition] 46: [Venus Semisextile] </t>
@@ -619,7 +646,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>18 Aries</t>
+    <t>18 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">48: [Sun Conj; Mars Square_b] 50: [Mercury Conj] 51: [Saturn Square] </t>
@@ -628,13 +655,16 @@
     <t>52</t>
   </si>
   <si>
-    <t>22 Aries</t>
+    <t>22 Taurus</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>26 Aries</t>
+    <t>26 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: [Sun] </t>
   </si>
   <si>
     <t xml:space="preserve">56: [Venus Semisquare] 57: [Jupiter Trine_b] 58: [Neptune Trine] 59: [Moon Semisquare; Uranus Trine] </t>
@@ -643,7 +673,13 @@
     <t>60</t>
   </si>
   <si>
-    <t>0 Taurus</t>
+    <t>0 Gemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: [Mercury] </t>
+  </si>
+  <si>
+    <t>RULERSHIP [4]</t>
   </si>
   <si>
     <t xml:space="preserve">61: [Asc Sextile_b] 62: [Moon Semisextile; Venus Semisquare] </t>
@@ -652,7 +688,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>4 Taurus</t>
+    <t>4 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">64: [Mars Sextile_b; Pluto Opposition] 66: [Sun Conj] 67: [Saturn Square] </t>
@@ -661,7 +697,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>8 Taurus</t>
+    <t>8 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">68: [Venus Sextile] 70: [Mercury Conj] </t>
@@ -670,7 +706,7 @@
     <t>72</t>
   </si>
   <si>
-    <t>12 Taurus</t>
+    <t>12 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">73: [Asc Semisextile_b; Jupiter Trine_b] 74: [Moon Sextile] </t>
@@ -679,7 +715,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>16 Taurus</t>
+    <t>16 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">76: [Mars Sextile_b] 77: [Moon Semisquare] 78: [Sun Semisextile; Neptune Quincunx] 79: [Uranus Quincunx] </t>
@@ -688,7 +724,7 @@
     <t>80</t>
   </si>
   <si>
-    <t>20 Taurus</t>
+    <t>20 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">80: [Venus Sextile] 81: [Saturn Trine] 82: [Neptune Quincunx] 83: [Uranus Quincunx] </t>
@@ -697,10 +733,7 @@
     <t>84</t>
   </si>
   <si>
-    <t>24 Taurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: [Sun] </t>
+    <t>24 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">87: [Jupiter Square_b] </t>
@@ -709,7 +742,7 @@
     <t>88</t>
   </si>
   <si>
-    <t>28 Taurus</t>
+    <t>28 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">88: [Mercury Semisextile] 91: [Asc Semisextile_b] </t>
@@ -718,7 +751,7 @@
     <t>92</t>
   </si>
   <si>
-    <t>2 Taurus</t>
+    <t>2 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">92: [Moon Sextile; Mercury Semisextile] 93: [Sun Semisquare] </t>
@@ -727,7 +760,7 @@
     <t>96</t>
   </si>
   <si>
-    <t>6 Taurus</t>
+    <t>6 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">96: [Sun Semisextile; Venus Square] 97: [Saturn Trine] 98: [Mars Semisextile_b] </t>
@@ -736,7 +769,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>10 Taurus</t>
+    <t>10 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">100: [Neptune Opposition] 101: [Uranus Opposition] 102: [Mercury Semisquare; Mars Semisextile_b] 103: [Asc Conj; Jupiter Square_b] </t>
@@ -745,7 +778,7 @@
     <t>104</t>
   </si>
   <si>
-    <t>14 Taurus</t>
+    <t>14 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">104: [Moon Square] 106: [Pluto Trine_b] </t>
@@ -754,7 +787,7 @@
     <t>108</t>
   </si>
   <si>
-    <t>18 Taurus</t>
+    <t>18 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">108: [Sun Sextile; Mercury Semisquare] 111: [Sun Semisquare] </t>
@@ -763,7 +796,13 @@
     <t>112</t>
   </si>
   <si>
-    <t>22 Taurus</t>
+    <t>22 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: [Asc] </t>
+  </si>
+  <si>
+    <t>None [0]</t>
   </si>
   <si>
     <t xml:space="preserve">112: [Venus Square] 114: [Mercury Sextile] </t>
@@ -772,7 +811,7 @@
     <t>116</t>
   </si>
   <si>
-    <t>26 Taurus</t>
+    <t>26 Cancer</t>
   </si>
   <si>
     <t xml:space="preserve">117: [Saturn Quincunx] 119: [Jupiter Sextile_b] </t>
@@ -781,13 +820,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>0 Gemini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: [Mercury] </t>
-  </si>
-  <si>
-    <t>RULERSHIP [4]</t>
+    <t>0 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">120: [Mars Conj; Neptune Opposition] 121: [Asc Conj; Saturn Quincunx; Uranus Opposition] 122: [Moon Square; Pluto Trine_b] </t>
@@ -796,7 +829,7 @@
     <t>124</t>
   </si>
   <si>
-    <t>4 Gemini</t>
+    <t>4 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">126: [Sun Sextile; Mercury Sextile; Venus Trine] </t>
@@ -805,7 +838,10 @@
     <t>128</t>
   </si>
   <si>
-    <t>8 Gemini</t>
+    <t>8 Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: [Mars] </t>
   </si>
   <si>
     <t xml:space="preserve">131: [Jupiter Sextile_b] </t>
@@ -814,7 +850,7 @@
     <t>132</t>
   </si>
   <si>
-    <t>12 Gemini</t>
+    <t>12 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">133: [Asc Semisextile] 134: [Moon Trine] </t>
@@ -823,7 +859,7 @@
     <t>136</t>
   </si>
   <si>
-    <t>16 Gemini</t>
+    <t>16 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">136: [Pluto Square_b] 138: [Sun Square] 139: [Saturn Opposition] </t>
@@ -832,7 +868,7 @@
     <t>140</t>
   </si>
   <si>
-    <t>20 Gemini</t>
+    <t>20 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">140: [Mars Conj] 142: [Mercury Square; Venus Trine] </t>
@@ -841,13 +877,13 @@
     <t>144</t>
   </si>
   <si>
-    <t>24 Gemini</t>
+    <t>24 Leo</t>
   </si>
   <si>
     <t>148</t>
   </si>
   <si>
-    <t>28 Gemini</t>
+    <t>28 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">148: [Asc Semisquare] 151: [Asc Semisextile] </t>
@@ -856,7 +892,7 @@
     <t>152</t>
   </si>
   <si>
-    <t>2 Gemini</t>
+    <t>2 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">152: [Moon Trine; Pluto Square_b] 153: [Jupiter Semisextile_b] </t>
@@ -865,7 +901,7 @@
     <t>156</t>
   </si>
   <si>
-    <t>6 Gemini</t>
+    <t>6 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">156: [Sun Square] 157: [Jupiter Semisextile_b] 158: [Mercury Square; Mars Semisextile] 159: [Saturn Opposition] </t>
@@ -874,7 +910,7 @@
     <t>160</t>
   </si>
   <si>
-    <t>10 Gemini</t>
+    <t>10 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">162: [Venus Quincunx; Mars Semisextile; Neptune Trine_b] 163: [Asc Sextile; Uranus Trine_b] </t>
@@ -883,7 +919,7 @@
     <t>164</t>
   </si>
   <si>
-    <t>14 Gemini</t>
+    <t>14 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">164: [Moon Quincunx] 166: [Asc Semisquare; Venus Quincunx] </t>
@@ -892,7 +928,7 @@
     <t>168</t>
   </si>
   <si>
-    <t>18 Gemini</t>
+    <t>18 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">168: [Sun Trine; Pluto Sextile_b] </t>
@@ -901,7 +937,7 @@
     <t>172</t>
   </si>
   <si>
-    <t>22 Gemini</t>
+    <t>22 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">172: [Mercury Trine; Mars Semisquare] 175: [Jupiter Conj] </t>
@@ -910,7 +946,7 @@
     <t>176</t>
   </si>
   <si>
-    <t>26 Gemini</t>
+    <t>26 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">178: [Mars Semisquare; Neptune Trine_b] 179: [Uranus Trine_b] </t>
@@ -919,7 +955,7 @@
     <t>180</t>
   </si>
   <si>
-    <t>0 Cancer</t>
+    <t>0 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">180: [Pluto Sextile_b] 181: [Asc Sextile] 182: [Moon Quincunx] </t>
@@ -928,7 +964,10 @@
     <t>184</t>
   </si>
   <si>
-    <t>4 Cancer</t>
+    <t>4 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5: [Jupiter] </t>
   </si>
   <si>
     <t xml:space="preserve">184: [Venus Opposition; Mars Sextile] 186: [Sun Trine] </t>
@@ -937,7 +976,7 @@
     <t>188</t>
   </si>
   <si>
-    <t>8 Cancer</t>
+    <t>8 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">188: [Mercury Trine] </t>
@@ -946,7 +985,7 @@
     <t>192</t>
   </si>
   <si>
-    <t>12 Cancer</t>
+    <t>12 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">192: [Neptune Square_b] 193: [Asc Square; Uranus Square_b] 194: [Moon Opposition] 195: [Jupiter Conj] </t>
@@ -955,7 +994,7 @@
     <t>196</t>
   </si>
   <si>
-    <t>16 Cancer</t>
+    <t>16 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">196: [Mars Sextile] 198: [Sun Quincunx] </t>
@@ -964,13 +1003,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>20 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: [Asc] </t>
-  </si>
-  <si>
-    <t>None [0]</t>
+    <t>20 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">201: [Saturn Trine_b] 202: [Pluto Semisextile_b] </t>
@@ -979,7 +1012,7 @@
     <t>204</t>
   </si>
   <si>
-    <t>24 Cancer</t>
+    <t>24 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">204: [Venus Opposition] 206: [Pluto Semisextile_b] </t>
@@ -988,7 +1021,7 @@
     <t>208</t>
   </si>
   <si>
-    <t>28 Cancer</t>
+    <t>28 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">208: [Mercury Quincunx; Neptune Square_b] 209: [Uranus Square_b] 211: [Asc Square] </t>
@@ -997,7 +1030,7 @@
     <t>212</t>
   </si>
   <si>
-    <t>2 Cancer</t>
+    <t>2 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">212: [Moon Opposition; Mercury Quincunx; Mars Square] 213: [Jupiter Semisextile] </t>
@@ -1006,7 +1039,7 @@
     <t>216</t>
   </si>
   <si>
-    <t>6 Cancer</t>
+    <t>6 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">216: [Sun Quincunx] 217: [Jupiter Semisextile; Saturn Trine_b] </t>
@@ -1015,7 +1048,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>10 Cancer</t>
+    <t>10 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">223: [Asc Trine] </t>
@@ -1024,7 +1057,7 @@
     <t>224</t>
   </si>
   <si>
-    <t>14 Cancer</t>
+    <t>14 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">224: [Neptune Sextile_b; Pluto Conj] 225: [Uranus Sextile_b] 227: [Jupiter Semisquare] </t>
@@ -1033,7 +1066,7 @@
     <t>228</t>
   </si>
   <si>
-    <t>18 Cancer</t>
+    <t>18 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">228: [Sun Opposition; Mars Square] 230: [Mercury Opposition] 231: [Saturn Square_b] </t>
@@ -1042,7 +1075,10 @@
     <t>232</t>
   </si>
   <si>
-    <t>22 Cancer</t>
+    <t>22 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: [Pluto] </t>
   </si>
   <si>
     <t xml:space="preserve">233: [Jupiter Semisquare] </t>
@@ -1051,7 +1087,7 @@
     <t>236</t>
   </si>
   <si>
-    <t>26 Cancer</t>
+    <t>26 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">236: [Neptune Sextile_b] 237: [Uranus Sextile_b] 239: [Jupiter Sextile] </t>
@@ -1060,7 +1096,7 @@
     <t>240</t>
   </si>
   <si>
-    <t>0 Leo</t>
+    <t>0 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">241: [Asc Trine] 242: [Mars Trine] </t>
@@ -1069,7 +1105,7 @@
     <t>244</t>
   </si>
   <si>
-    <t>4 Leo</t>
+    <t>4 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">244: [Pluto Conj] 246: [Sun Opposition; Venus Trine_b] 247: [Saturn Square_b] </t>
@@ -1078,10 +1114,7 @@
     <t>248</t>
   </si>
   <si>
-    <t>8 Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: [Mars] </t>
+    <t>8 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">250: [Mercury Opposition] 251: [Jupiter Sextile] </t>
@@ -1090,7 +1123,7 @@
     <t>252</t>
   </si>
   <si>
-    <t>12 Leo</t>
+    <t>12 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">253: [Asc Quincunx] 254: [Moon Trine_b] </t>
@@ -1099,7 +1132,7 @@
     <t>256</t>
   </si>
   <si>
-    <t>16 Leo</t>
+    <t>16 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">258: [Mars Trine; Neptune Semisextile_b] 259: [Uranus Semisextile_b] </t>
@@ -1108,7 +1141,7 @@
     <t>260</t>
   </si>
   <si>
-    <t>20 Leo</t>
+    <t>20 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">262: [Venus Trine_b; Neptune Semisextile_b; Pluto Semisextile] 263: [Saturn Sextile_b; Uranus Semisextile_b] </t>
@@ -1117,7 +1150,7 @@
     <t>264</t>
   </si>
   <si>
-    <t>24 Leo</t>
+    <t>24 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">266: [Pluto Semisextile] 267: [Jupiter Square] </t>
@@ -1126,7 +1159,7 @@
     <t>268</t>
   </si>
   <si>
-    <t>28 Leo</t>
+    <t>28 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">271: [Asc Quincunx] </t>
@@ -1135,7 +1168,7 @@
     <t>272</t>
   </si>
   <si>
-    <t>2 Leo</t>
+    <t>2 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">272: [Moon Trine_b] 275: [Saturn Sextile_b] </t>
@@ -1144,7 +1177,7 @@
     <t>276</t>
   </si>
   <si>
-    <t>6 Leo</t>
+    <t>6 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">276: [Venus Square_b; Pluto Semisquare] 278: [Mars Quincunx] </t>
@@ -1153,7 +1186,7 @@
     <t>280</t>
   </si>
   <si>
-    <t>10 Leo</t>
+    <t>10 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">280: [Neptune Conj] 281: [Uranus Conj] 282: [Mars Quincunx; Pluto Semisquare] 283: [Asc Opposition; Jupiter Square] </t>
@@ -1162,7 +1195,7 @@
     <t>284</t>
   </si>
   <si>
-    <t>14 Leo</t>
+    <t>14 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">284: [Moon Square_b] </t>
@@ -1171,7 +1204,13 @@
     <t>288</t>
   </si>
   <si>
-    <t>18 Leo</t>
+    <t>18 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: [Neptune] 21: [Uranus] </t>
+  </si>
+  <si>
+    <t>FALL [1]NO_DIGNITY [0]</t>
   </si>
   <si>
     <t xml:space="preserve">288: [Sun Trine_b; Pluto Sextile] </t>
@@ -1180,7 +1219,7 @@
     <t>292</t>
   </si>
   <si>
-    <t>22 Leo</t>
+    <t>22 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">292: [Mercury Trine_b; Venus Square_b] </t>
@@ -1189,7 +1228,7 @@
     <t>296</t>
   </si>
   <si>
-    <t>26 Leo</t>
+    <t>26 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">297: [Jupiter Trine; Saturn Semisextile_b] </t>
@@ -1198,7 +1237,7 @@
     <t>300</t>
   </si>
   <si>
-    <t>0 Virgo</t>
+    <t>0 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">300: [Mars Opposition; Neptune Conj; Pluto Sextile] 301: [Asc Opposition; Saturn Semisextile_b; Uranus Conj] 302: [Moon Square_b] </t>
@@ -1207,7 +1246,7 @@
     <t>304</t>
   </si>
   <si>
-    <t>4 Virgo</t>
+    <t>4 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">306: [Sun Trine_b] </t>
@@ -1216,7 +1255,7 @@
     <t>308</t>
   </si>
   <si>
-    <t>8 Virgo</t>
+    <t>8 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">308: [Mercury Trine_b; Venus Sextile_b] </t>
@@ -1225,7 +1264,7 @@
     <t>312</t>
   </si>
   <si>
-    <t>12 Virgo</t>
+    <t>12 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">313: [Jupiter Trine] 314: [Moon Sextile_b] </t>
@@ -1234,7 +1273,7 @@
     <t>316</t>
   </si>
   <si>
-    <t>16 Virgo</t>
+    <t>16 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">316: [Pluto Square] 318: [Sun Square_b; Neptune Semisextile] 319: [Saturn Conj; Uranus Semisextile] </t>
@@ -1243,7 +1282,7 @@
     <t>320</t>
   </si>
   <si>
-    <t>20 Virgo</t>
+    <t>20 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">320: [Venus Sextile_b; Mars Opposition] 322: [Mercury Square_b; Neptune Semisextile] 323: [Uranus Semisextile] </t>
@@ -1252,19 +1291,22 @@
     <t>324</t>
   </si>
   <si>
-    <t>24 Virgo</t>
+    <t>24 Aquarius</t>
   </si>
   <si>
     <t>328</t>
   </si>
   <si>
-    <t>28 Virgo</t>
+    <t>28 Aquarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: [Saturn] </t>
   </si>
   <si>
     <t>332</t>
   </si>
   <si>
-    <t>2 Virgo</t>
+    <t>2 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">332: [Moon Sextile_b; Neptune Semisquare; Pluto Square] 333: [Jupiter Quincunx; Uranus Semisquare] </t>
@@ -1273,7 +1315,7 @@
     <t>336</t>
   </si>
   <si>
-    <t>6 Virgo</t>
+    <t>6 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">336: [Sun Square_b] 337: [Jupiter Quincunx] 338: [Mercury Square_b; Neptune Semisquare] 339: [Saturn Conj; Uranus Semisquare] </t>
@@ -1282,7 +1324,7 @@
     <t>340</t>
   </si>
   <si>
-    <t>10 Virgo</t>
+    <t>10 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">342: [Venus Semisextile_b] 343: [Asc Trine_b] </t>
@@ -1291,7 +1333,7 @@
     <t>344</t>
   </si>
   <si>
-    <t>14 Virgo</t>
+    <t>14 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">344: [Moon Semisextile_b; Neptune Sextile] 345: [Uranus Sextile] 346: [Venus Semisextile_b; Pluto Trine] </t>
@@ -1300,7 +1342,7 @@
     <t>348</t>
   </si>
   <si>
-    <t>18 Virgo</t>
+    <t>18 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">348: [Sun Sextile_b] </t>
@@ -1309,7 +1351,7 @@
     <t>352</t>
   </si>
   <si>
-    <t>22 Virgo</t>
+    <t>22 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">354: [Mercury Sextile_b] 355: [Jupiter Opposition] </t>
@@ -1318,7 +1360,7 @@
     <t>356</t>
   </si>
   <si>
-    <t>26 Virgo</t>
+    <t>26 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">356: [Neptune Sextile] 357: [Saturn Semisextile; Uranus Sextile] </t>
@@ -1739,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC91"/>
+  <dimension ref="B1:AP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1748,7 +1790,7 @@
     <col min="1" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,40 +1875,70 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="2:29">
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:42">
       <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -1892,34 +1964,34 @@
       <c r="AB2">
         <v>10</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:42">
       <c r="D3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -1936,31 +2008,31 @@
       <c r="X3">
         <v>-10</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:42">
       <c r="D4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -1974,49 +2046,49 @@
       <c r="Y4">
         <v>-2</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:42">
       <c r="B5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -2042,43 +2114,43 @@
       <c r="AA5">
         <v>-5</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:42">
       <c r="D6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -2104,49 +2176,49 @@
       <c r="AA6">
         <v>-5</v>
       </c>
-      <c r="AC6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
+      <c r="AG6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -2172,40 +2244,40 @@
       <c r="AB7">
         <v>-1</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:42">
       <c r="D8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -2228,37 +2300,37 @@
       <c r="AB8">
         <v>-1</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:29">
+    <row r="9" spans="2:42">
       <c r="D9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2278,28 +2350,28 @@
       <c r="Z9">
         <v>-5</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:29">
+    <row r="10" spans="2:42">
       <c r="D10" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -2310,54 +2382,54 @@
       <c r="Y10">
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:42">
       <c r="D11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="W11">
         <v>-5</v>
       </c>
-      <c r="AC11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29">
+      <c r="AG11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
       <c r="D12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -2374,46 +2446,40 @@
       <c r="AA12">
         <v>10</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
+    <row r="13" spans="2:42">
       <c r="D13" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -2436,43 +2502,43 @@
       <c r="AB13">
         <v>-10</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:42">
       <c r="D14" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R14">
         <v>3</v>
@@ -2498,46 +2564,40 @@
       <c r="AB14">
         <v>-10</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
+    <row r="15" spans="2:42">
       <c r="E15" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R15">
         <v>3</v>
@@ -2563,49 +2623,55 @@
       <c r="AB15">
         <v>-10</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:42">
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R16">
         <v>3</v>
@@ -2637,43 +2703,49 @@
       <c r="AB16">
         <v>-10</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="2:33">
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R17">
         <v>3</v>
@@ -2699,37 +2771,37 @@
       <c r="AB17">
         <v>-10</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:33">
       <c r="D18" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -2749,34 +2821,34 @@
       <c r="Y18">
         <v>-5</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:33">
       <c r="D19" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="S19">
         <v>-2</v>
@@ -2793,34 +2865,34 @@
       <c r="X19">
         <v>10</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:33">
       <c r="D20" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="S20">
         <v>-2</v>
@@ -2837,37 +2909,37 @@
       <c r="X20">
         <v>10</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:33">
       <c r="D21" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -2887,37 +2959,37 @@
       <c r="AA21">
         <v>-1</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:33">
       <c r="D22" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2937,40 +3009,34 @@
       <c r="AA22">
         <v>-1</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
-      <c r="B23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
+    <row r="23" spans="2:33">
       <c r="D23" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -2987,37 +3053,37 @@
       <c r="Y23">
         <v>10</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:33">
       <c r="D24" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -3037,28 +3103,28 @@
       <c r="Y24">
         <v>10</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:33">
       <c r="D25" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="R25">
         <v>-2</v>
@@ -3069,34 +3135,34 @@
       <c r="Y25">
         <v>10</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:33">
       <c r="D26" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="R26">
         <v>-2</v>
@@ -3113,43 +3179,43 @@
       <c r="Y26">
         <v>10</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:33">
       <c r="D27" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="R27">
         <v>-2</v>
@@ -3175,43 +3241,43 @@
       <c r="AA27">
         <v>-10</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:33">
       <c r="D28" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R28">
         <v>-2</v>
@@ -3237,40 +3303,40 @@
       <c r="AB28">
         <v>10</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:33">
       <c r="D29" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R29">
         <v>-2</v>
@@ -3293,40 +3359,46 @@
       <c r="AB29">
         <v>10</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:33">
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R30">
         <v>5</v>
@@ -3349,52 +3421,46 @@
       <c r="AB30">
         <v>10</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
-      <c r="B31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
-      </c>
+    <row r="31" spans="2:33">
       <c r="D31" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R31">
         <v>5</v>
@@ -3423,52 +3489,46 @@
       <c r="AB31">
         <v>10</v>
       </c>
-      <c r="AC31">
+      <c r="AG31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
-      <c r="B32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" t="s">
-        <v>257</v>
-      </c>
+    <row r="32" spans="2:33">
       <c r="D32" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R32">
         <v>5</v>
@@ -3497,34 +3557,34 @@
       <c r="AB32">
         <v>10</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="4:29">
+    <row r="33" spans="2:33">
       <c r="D33" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -3541,28 +3601,34 @@
       <c r="X33">
         <v>5</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="4:29">
+    <row r="34" spans="2:33">
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="V34">
         <v>10</v>
@@ -3573,31 +3639,31 @@
       <c r="X34">
         <v>5</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:29">
+    <row r="35" spans="2:33">
       <c r="D35" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3611,40 +3677,40 @@
       <c r="W35">
         <v>3</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:29">
+    <row r="36" spans="2:33">
       <c r="D36" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R36">
         <v>-5</v>
@@ -3667,40 +3733,40 @@
       <c r="AB36">
         <v>-5</v>
       </c>
-      <c r="AC36">
+      <c r="AG36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:29">
+    <row r="37" spans="2:33">
       <c r="D37" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R37">
         <v>-5</v>
@@ -3723,34 +3789,34 @@
       <c r="AB37">
         <v>-5</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:29">
+    <row r="38" spans="2:33">
       <c r="E38" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R38">
         <v>-5</v>
@@ -3770,37 +3836,37 @@
       <c r="AB38">
         <v>-5</v>
       </c>
-      <c r="AC38">
+      <c r="AG38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:29">
+    <row r="39" spans="2:33">
       <c r="D39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R39">
         <v>-5</v>
@@ -3820,34 +3886,34 @@
       <c r="AB39">
         <v>-5</v>
       </c>
-      <c r="AC39">
+      <c r="AG39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:29">
+    <row r="40" spans="2:33">
       <c r="D40" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="R40">
         <v>-5</v>
@@ -3864,34 +3930,34 @@
       <c r="Y40">
         <v>-10</v>
       </c>
-      <c r="AC40">
+      <c r="AG40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:29">
+    <row r="41" spans="2:33">
       <c r="D41" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="T41">
         <v>-2</v>
@@ -3908,34 +3974,34 @@
       <c r="Y41">
         <v>-10</v>
       </c>
-      <c r="AC41">
+      <c r="AG41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="4:29">
+    <row r="42" spans="2:33">
       <c r="D42" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E42" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="T42">
         <v>-2</v>
@@ -3952,34 +4018,34 @@
       <c r="AA42">
         <v>10</v>
       </c>
-      <c r="AC42">
+      <c r="AG42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="4:29">
+    <row r="43" spans="2:33">
       <c r="D43" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="S43">
         <v>-1</v>
@@ -3996,37 +4062,37 @@
       <c r="AA43">
         <v>10</v>
       </c>
-      <c r="AC43">
+      <c r="AG43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:29">
+    <row r="44" spans="2:33">
       <c r="D44" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R44">
         <v>10</v>
@@ -4046,46 +4112,46 @@
       <c r="AB44">
         <v>5</v>
       </c>
-      <c r="AC44">
+      <c r="AG44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:29">
+    <row r="45" spans="2:33">
       <c r="D45" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R45">
         <v>10</v>
@@ -4114,46 +4180,46 @@
       <c r="AB45">
         <v>5</v>
       </c>
-      <c r="AC45">
+      <c r="AG45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:29">
+    <row r="46" spans="2:33">
       <c r="D46" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E46" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R46">
         <v>10</v>
@@ -4182,34 +4248,34 @@
       <c r="AB46">
         <v>5</v>
       </c>
-      <c r="AC46">
+      <c r="AG46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:29">
+    <row r="47" spans="2:33">
       <c r="D47" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R47">
         <v>10</v>
@@ -4226,34 +4292,40 @@
       <c r="X47">
         <v>3</v>
       </c>
-      <c r="AC47">
+      <c r="AG47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="4:29">
+    <row r="48" spans="2:33">
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R48">
         <v>10</v>
@@ -4270,28 +4342,28 @@
       <c r="X48">
         <v>3</v>
       </c>
-      <c r="AC48">
+      <c r="AG48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:33">
       <c r="D49" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="V49">
         <v>-10</v>
@@ -4302,40 +4374,40 @@
       <c r="X49">
         <v>3</v>
       </c>
-      <c r="AC49">
+      <c r="AG49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:33">
       <c r="D50" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F50" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S50">
         <v>-10</v>
@@ -4358,37 +4430,37 @@
       <c r="AA50">
         <v>-5</v>
       </c>
-      <c r="AC50">
+      <c r="AG50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:33">
       <c r="D51" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="R51">
         <v>-1</v>
@@ -4408,49 +4480,43 @@
       <c r="AA51">
         <v>-5</v>
       </c>
-      <c r="AC51">
+      <c r="AG51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:29">
-      <c r="B52" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" t="s">
-        <v>318</v>
-      </c>
+    <row r="52" spans="2:33">
       <c r="D52" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="R52">
         <v>-1</v>
@@ -4476,40 +4542,40 @@
       <c r="AB52">
         <v>1</v>
       </c>
-      <c r="AC52">
+      <c r="AG52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:33">
       <c r="D53" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="R53">
         <v>-1</v>
@@ -4532,37 +4598,37 @@
       <c r="AB53">
         <v>1</v>
       </c>
-      <c r="AC53">
+      <c r="AG53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:29">
+    <row r="54" spans="2:33">
       <c r="D54" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E54" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R54">
         <v>-1</v>
@@ -4582,31 +4648,31 @@
       <c r="Z54">
         <v>-5</v>
       </c>
-      <c r="AC54">
+      <c r="AG54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:29">
+    <row r="55" spans="2:33">
       <c r="D55" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F55" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="R55">
         <v>-1</v>
@@ -4620,28 +4686,28 @@
       <c r="Y55">
         <v>10</v>
       </c>
-      <c r="AC55">
+      <c r="AG55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:33">
       <c r="D56" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="W56">
         <v>-5</v>
@@ -4652,63 +4718,63 @@
       <c r="Y56">
         <v>10</v>
       </c>
-      <c r="AC56">
+      <c r="AG56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:29">
+    <row r="57" spans="2:33">
       <c r="D57" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="W57">
+        <v>-5</v>
+      </c>
+      <c r="AG57">
         <v>56</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T57">
-        <v>10</v>
-      </c>
-      <c r="W57">
-        <v>-5</v>
-      </c>
-      <c r="AC57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:29">
+    </row>
+    <row r="58" spans="2:33">
       <c r="D58" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E58" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F58" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="T58">
         <v>10</v>
@@ -4728,43 +4794,43 @@
       <c r="AB58">
         <v>3</v>
       </c>
-      <c r="AC58">
+      <c r="AG58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:29">
+    <row r="59" spans="2:33">
       <c r="D59" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F59" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R59">
         <v>-10</v>
@@ -4790,49 +4856,49 @@
       <c r="AB59">
         <v>3</v>
       </c>
-      <c r="AC59">
+      <c r="AG59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:29">
+    <row r="60" spans="2:33">
       <c r="B60" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E60" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R60">
         <v>-10</v>
@@ -4858,40 +4924,40 @@
       <c r="AB60">
         <v>3</v>
       </c>
-      <c r="AC60">
+      <c r="AG60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:29">
+    <row r="61" spans="2:33">
       <c r="D61" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E61" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R61">
         <v>-10</v>
@@ -4914,40 +4980,40 @@
       <c r="AB61">
         <v>3</v>
       </c>
-      <c r="AC61">
+      <c r="AG61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:33">
       <c r="D62" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R62">
         <v>-10</v>
@@ -4970,37 +5036,37 @@
       <c r="AB62">
         <v>3</v>
       </c>
-      <c r="AC62">
+      <c r="AG62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:33">
       <c r="D63" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E63" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F63" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="R63">
         <v>-10</v>
@@ -5020,37 +5086,31 @@
       <c r="Y63">
         <v>-5</v>
       </c>
-      <c r="AC63">
+      <c r="AG63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:29">
-      <c r="B64" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" t="s">
-        <v>180</v>
-      </c>
+    <row r="64" spans="2:33">
       <c r="D64" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E64" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F64" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U64">
         <v>-10</v>
@@ -5064,31 +5124,31 @@
       <c r="X64">
         <v>5</v>
       </c>
-      <c r="AC64">
+      <c r="AG64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:33">
       <c r="D65" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="S65">
         <v>10</v>
@@ -5102,37 +5162,37 @@
       <c r="W65">
         <v>10</v>
       </c>
-      <c r="AC65">
+      <c r="AG65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:33">
       <c r="D66" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E66" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S66">
         <v>10</v>
@@ -5152,40 +5212,40 @@
       <c r="AA66">
         <v>1</v>
       </c>
-      <c r="AC66">
+      <c r="AG66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:33">
       <c r="D67" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S67">
         <v>10</v>
@@ -5208,34 +5268,34 @@
       <c r="AB67">
         <v>1</v>
       </c>
-      <c r="AC67">
+      <c r="AG67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:33">
       <c r="D68" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E68" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F68" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S68">
         <v>10</v>
@@ -5252,31 +5312,31 @@
       <c r="AB68">
         <v>1</v>
       </c>
-      <c r="AC68">
+      <c r="AG68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:33">
       <c r="D69" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S69">
         <v>10</v>
@@ -5290,57 +5350,57 @@
       <c r="Y69">
         <v>5</v>
       </c>
-      <c r="AC69">
+      <c r="AG69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:33">
       <c r="D70" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F70" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="M70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="X70">
+        <v>-5</v>
+      </c>
+      <c r="Y70">
+        <v>5</v>
+      </c>
+      <c r="AG70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33">
+      <c r="D71" t="s">
+        <v>388</v>
+      </c>
+      <c r="E71" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" t="s">
+        <v>386</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L71" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="X70">
-        <v>-5</v>
-      </c>
-      <c r="Y70">
-        <v>5</v>
-      </c>
-      <c r="AC70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29">
-      <c r="D71" t="s">
-        <v>377</v>
-      </c>
-      <c r="E71" t="s">
-        <v>376</v>
-      </c>
-      <c r="F71" t="s">
-        <v>375</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="M71" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="V71">
         <v>-5</v>
@@ -5354,46 +5414,40 @@
       <c r="AB71">
         <v>-2</v>
       </c>
-      <c r="AC71">
+      <c r="AG71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:29">
-      <c r="B72" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" t="s">
-        <v>180</v>
-      </c>
+    <row r="72" spans="2:33">
       <c r="D72" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E72" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F72" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="T72">
         <v>-10</v>
@@ -5416,34 +5470,34 @@
       <c r="AB72">
         <v>-2</v>
       </c>
-      <c r="AC72">
+      <c r="AG72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:33">
       <c r="D73" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E73" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S73">
         <v>-5</v>
@@ -5460,40 +5514,46 @@
       <c r="AA73">
         <v>3</v>
       </c>
-      <c r="AC73">
+      <c r="AG73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:33">
+      <c r="B74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74" t="s">
+        <v>398</v>
+      </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E74" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F74" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -5516,40 +5576,40 @@
       <c r="AB74">
         <v>5</v>
       </c>
-      <c r="AC74">
+      <c r="AG74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:33">
       <c r="D75" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5572,46 +5632,46 @@
       <c r="AB75">
         <v>5</v>
       </c>
-      <c r="AC75">
+      <c r="AG75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:33">
       <c r="D76" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R76">
         <v>10</v>
@@ -5640,43 +5700,43 @@
       <c r="AB76">
         <v>5</v>
       </c>
-      <c r="AC76">
+      <c r="AG76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:33">
       <c r="D77" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E77" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5702,31 +5762,31 @@
       <c r="Z77">
         <v>3</v>
       </c>
-      <c r="AC77">
+      <c r="AG77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:33">
       <c r="D78" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="R78">
         <v>10</v>
@@ -5740,28 +5800,28 @@
       <c r="X78">
         <v>10</v>
       </c>
-      <c r="AC78">
+      <c r="AG78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:33">
       <c r="D79" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E79" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -5772,31 +5832,31 @@
       <c r="X79">
         <v>10</v>
       </c>
-      <c r="AC79">
+      <c r="AG79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:33">
       <c r="D80" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="S80">
         <v>5</v>
@@ -5810,43 +5870,43 @@
       <c r="X80">
         <v>10</v>
       </c>
-      <c r="AC80">
+      <c r="AG80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="4:29">
+    <row r="81" spans="2:33">
       <c r="D81" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R81">
         <v>-5</v>
@@ -5872,40 +5932,40 @@
       <c r="AB81">
         <v>-5</v>
       </c>
-      <c r="AC81">
+      <c r="AG81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="4:29">
+    <row r="82" spans="2:33">
       <c r="D82" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R82">
         <v>-5</v>
@@ -5928,31 +5988,31 @@
       <c r="AB82">
         <v>-5</v>
       </c>
-      <c r="AC82">
+      <c r="AG82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="4:29">
+    <row r="83" spans="2:33">
       <c r="E83" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R83">
         <v>-5</v>
@@ -5969,31 +6029,37 @@
       <c r="AB83">
         <v>-5</v>
       </c>
-      <c r="AC83">
+      <c r="AG83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="4:29">
+    <row r="84" spans="2:33">
+      <c r="B84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
       <c r="E84" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F84" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R84">
         <v>-5</v>
@@ -6010,37 +6076,37 @@
       <c r="AB84">
         <v>-5</v>
       </c>
-      <c r="AC84">
+      <c r="AG84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="4:29">
+    <row r="85" spans="2:33">
       <c r="D85" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="E85" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F85" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="R85">
         <v>-5</v>
@@ -6060,34 +6126,34 @@
       <c r="AA85">
         <v>-2</v>
       </c>
-      <c r="AC85">
+      <c r="AG85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="4:29">
+    <row r="86" spans="2:33">
       <c r="D86" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="E86" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="F86" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="U86">
         <v>-5</v>
@@ -6104,25 +6170,25 @@
       <c r="AA86">
         <v>-2</v>
       </c>
-      <c r="AC86">
+      <c r="AG86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="4:29">
+    <row r="87" spans="2:33">
       <c r="D87" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E87" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F87" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="T87">
         <v>10</v>
@@ -6130,37 +6196,37 @@
       <c r="V87">
         <v>1</v>
       </c>
-      <c r="AC87">
+      <c r="AG87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="4:29">
+    <row r="88" spans="2:33">
       <c r="D88" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="E88" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F88" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -6180,37 +6246,37 @@
       <c r="AB88">
         <v>10</v>
       </c>
-      <c r="AC88">
+      <c r="AG88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="4:29">
+    <row r="89" spans="2:33">
       <c r="D89" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E89" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F89" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O89" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R89">
         <v>5</v>
@@ -6230,43 +6296,43 @@
       <c r="AB89">
         <v>10</v>
       </c>
-      <c r="AC89">
+      <c r="AG89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="4:29">
+    <row r="90" spans="2:33">
       <c r="D90" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F90" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R90">
         <v>5</v>
@@ -6292,43 +6358,43 @@
       <c r="AB90">
         <v>10</v>
       </c>
-      <c r="AC90">
+      <c r="AG90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="4:29">
+    <row r="91" spans="2:33">
       <c r="D91" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="E91" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F91" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R91">
         <v>5</v>
@@ -6354,7 +6420,7 @@
       <c r="AB91">
         <v>10</v>
       </c>
-      <c r="AC91">
+      <c r="AG91">
         <v>90</v>
       </c>
     </row>
